--- a/religion_stats.xlsx
+++ b/religion_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d.j/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D27CE3-A05D-3C4B-90DB-32D7BCAB8BEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81C55C3-14F1-844F-B287-42A5964D1BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="800" windowWidth="31620" windowHeight="19000" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="800" windowWidth="31620" windowHeight="19000" tabRatio="601" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1921" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="210">
   <si>
     <t xml:space="preserve">               - ritu řeckého</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Katolické - ritu římského</t>
-  </si>
-  <si>
-    <t>Evangelické:</t>
   </si>
   <si>
     <t xml:space="preserve">   Církev římskokatolická</t>
@@ -363,9 +360,6 @@
   </si>
   <si>
     <t>Evangelical, total</t>
-  </si>
-  <si>
-    <t>Evangelical</t>
   </si>
   <si>
     <r>
@@ -1408,8 +1402,8 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" customHeight="1"/>
@@ -1424,19 +1418,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>211</v>
-      </c>
       <c r="E1" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1">
@@ -1453,7 +1447,7 @@
         <v>5204111</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1">
@@ -1470,7 +1464,7 @@
         <v>4349055</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -1488,7 +1482,7 @@
         <v>204497</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -1506,7 +1500,7 @@
         <v>3191</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -1524,7 +1518,7 @@
         <v>10383</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -1542,7 +1536,7 @@
         <v>264946</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -1560,7 +1554,7 @@
         <v>63884</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -1578,7 +1572,7 @@
         <v>1400</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -1596,7 +1590,7 @@
         <v>654</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -1614,7 +1608,7 @@
         <v>306101</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -1980,19 +1974,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>211</v>
-      </c>
       <c r="E1" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
@@ -2009,7 +2003,7 @@
         <v>5500312</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -2027,7 +2021,7 @@
         <v>4414496</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -2045,7 +2039,7 @@
         <v>2081</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -2063,7 +2057,7 @@
         <v>258369</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -2081,7 +2075,7 @@
         <v>10141</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -2099,7 +2093,7 @@
         <v>396837</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -2117,7 +2111,7 @@
         <v>11751</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -2135,7 +2129,7 @@
         <v>3392</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -2153,7 +2147,7 @@
         <v>59141</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -2171,7 +2165,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -2189,7 +2183,7 @@
         <v>344066</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -2200,29 +2194,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D35F53-2078-7C4B-9AFA-CFBBB00BF502}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>211</v>
-      </c>
       <c r="E1" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F1" s="55"/>
     </row>
@@ -2240,7 +2234,7 @@
         <v>4570492</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="17"/>
     </row>
@@ -2258,7 +2252,7 @@
         <v>3543164</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -2276,52 +2270,58 @@
         <v>14275</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>50365</v>
+      </c>
+      <c r="C5" s="6">
+        <v>25359</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25006</v>
+      </c>
       <c r="E5" s="25" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>50365</v>
+        <v>946813</v>
       </c>
       <c r="C6" s="6">
-        <v>25359</v>
+        <v>458371</v>
       </c>
       <c r="D6" s="7">
-        <v>25006</v>
+        <v>488442</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>946813</v>
+        <v>8038</v>
       </c>
       <c r="C7" s="6">
-        <v>458371</v>
+        <v>4060</v>
       </c>
       <c r="D7" s="7">
-        <v>488442</v>
+        <v>3978</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>59</v>
@@ -2330,16 +2330,16 @@
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>8038</v>
+        <v>12786</v>
       </c>
       <c r="C8" s="6">
-        <v>4060</v>
+        <v>5315</v>
       </c>
       <c r="D8" s="7">
-        <v>3978</v>
+        <v>7471</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>60</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>12786</v>
+        <v>22889</v>
       </c>
       <c r="C9" s="6">
-        <v>5315</v>
+        <v>12764</v>
       </c>
       <c r="D9" s="7">
-        <v>7471</v>
+        <v>10125</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>61</v>
@@ -2366,39 +2366,21 @@
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>22889</v>
+        <v>519962</v>
       </c>
       <c r="C10" s="6">
-        <v>12764</v>
+        <v>305886</v>
       </c>
       <c r="D10" s="7">
-        <v>10125</v>
+        <v>214076</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>519962</v>
-      </c>
-      <c r="C11" s="6">
-        <v>305886</v>
-      </c>
-      <c r="D11" s="7">
-        <v>214076</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2417,19 +2399,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>211</v>
-      </c>
       <c r="E1" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F1" s="55"/>
     </row>
@@ -2447,13 +2429,13 @@
         <v>5302280</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5">
         <v>4021385</v>
@@ -2465,13 +2447,13 @@
         <v>2201903</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5">
         <v>2725</v>
@@ -2483,13 +2465,13 @@
         <v>1648</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
         <v>7030</v>
@@ -2501,13 +2483,13 @@
         <v>3831</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5">
         <v>19354</v>
@@ -2519,13 +2501,13 @@
         <v>11079</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <v>178036</v>
@@ -2537,13 +2519,13 @@
         <v>107277</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>203996</v>
@@ -2555,13 +2537,13 @@
         <v>114699</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="21">
         <v>33130</v>
@@ -2573,13 +2555,13 @@
         <v>18383</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="21">
         <v>4151</v>
@@ -2591,13 +2573,13 @@
         <v>2225</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>1396</v>
@@ -2609,13 +2591,13 @@
         <v>771</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5">
         <v>1485</v>
@@ -2627,13 +2609,13 @@
         <v>817</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <v>427</v>
@@ -2645,13 +2627,13 @@
         <v>256</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <v>2855</v>
@@ -2663,13 +2645,13 @@
         <v>1687</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5">
         <v>2544</v>
@@ -2681,13 +2663,13 @@
         <v>1456</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5">
         <v>2759</v>
@@ -2699,13 +2681,13 @@
         <v>1515</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>2269</v>
@@ -2717,13 +2699,13 @@
         <v>1331</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5">
         <v>7674</v>
@@ -2735,13 +2717,13 @@
         <v>4484</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5">
         <v>365</v>
@@ -2753,13 +2735,13 @@
         <v>177</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5">
         <v>3017</v>
@@ -2771,13 +2753,13 @@
         <v>1597</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" s="21">
         <v>1292</v>
@@ -2789,13 +2771,13 @@
         <v>728</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B22" s="41">
         <v>549</v>
@@ -2807,13 +2789,13 @@
         <v>298</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B23" s="21">
         <v>8790</v>
@@ -2825,13 +2807,13 @@
         <v>4706</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="5">
         <v>14575</v>
@@ -2843,13 +2825,13 @@
         <v>8528</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="11">
         <v>495</v>
@@ -2861,13 +2843,13 @@
         <v>119</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B26" s="5">
         <v>3435</v>
@@ -2879,7 +2861,7 @@
         <v>1257</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -2897,7 +2879,7 @@
         <v>815191</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -2915,7 +2897,7 @@
         <v>1996317</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -2936,19 +2918,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>211</v>
-      </c>
       <c r="E1" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F1" s="55"/>
     </row>
@@ -2966,13 +2948,13 @@
         <v>5247989</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5">
         <v>2740780</v>
@@ -2984,13 +2966,13 @@
         <v>1556618</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5">
         <v>1605</v>
@@ -3002,13 +2984,13 @@
         <v>918</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
         <v>7675</v>
@@ -3020,13 +3002,13 @@
         <v>4221</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" s="21">
         <v>22968</v>
@@ -3038,13 +3020,13 @@
         <v>12949</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <v>99103</v>
@@ -3056,13 +3038,13 @@
         <v>61386</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>117212</v>
@@ -3074,13 +3056,13 @@
         <v>68075</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="21">
         <v>14020</v>
@@ -3092,13 +3074,13 @@
         <v>7677</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="21">
         <v>14885</v>
@@ -3110,13 +3092,13 @@
         <v>8709</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5">
         <v>4565</v>
@@ -3128,13 +3110,13 @@
         <v>2504</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5">
         <v>449</v>
@@ -3146,13 +3128,13 @@
         <v>263</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5">
         <v>2694</v>
@@ -3164,13 +3146,13 @@
         <v>1564</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="21">
         <v>5412</v>
@@ -3182,13 +3164,13 @@
         <v>3055</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5">
         <v>3622</v>
@@ -3200,13 +3182,13 @@
         <v>2038</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5">
         <v>9931</v>
@@ -3218,13 +3200,13 @@
         <v>5528</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>3426</v>
@@ -3236,13 +3218,13 @@
         <v>1957</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5">
         <v>9757</v>
@@ -3254,13 +3236,13 @@
         <v>5608</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5">
         <v>302</v>
@@ -3272,13 +3254,13 @@
         <v>147</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5">
         <v>6927</v>
@@ -3290,13 +3272,13 @@
         <v>3845</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5">
         <v>1366</v>
@@ -3308,13 +3290,13 @@
         <v>713</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5">
         <v>23162</v>
@@ -3326,13 +3308,13 @@
         <v>13795</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="21">
         <v>1515</v>
@@ -3344,13 +3326,13 @@
         <v>716</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5">
         <v>43</v>
@@ -3362,13 +3344,13 @@
         <v>23</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5">
         <v>110</v>
@@ -3380,13 +3362,13 @@
         <v>37</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5">
         <v>4012</v>
@@ -3398,13 +3380,13 @@
         <v>2261</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5">
         <v>294</v>
@@ -3416,13 +3398,13 @@
         <v>93</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5">
         <v>201</v>
@@ -3434,13 +3416,13 @@
         <v>89</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5">
         <v>3699</v>
@@ -3452,13 +3434,13 @@
         <v>1023</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="5">
         <v>6817</v>
@@ -3470,13 +3452,13 @@
         <v>2467</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="5">
         <v>767</v>
@@ -3488,13 +3470,13 @@
         <v>210</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="5">
         <v>180769</v>
@@ -3506,7 +3488,7 @@
         <v>95179</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -3524,7 +3506,7 @@
         <v>444140</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -3542,7 +3524,7 @@
         <v>2940181</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -3555,33 +3537,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C422EFB-3F3F-904B-8169-6215A95024DB}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>211</v>
-      </c>
       <c r="E1" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="14" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="15">
         <v>10436560</v>
@@ -3593,12 +3575,12 @@
         <v>5326794</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="44">
         <v>705368</v>
@@ -3610,12 +3592,12 @@
         <v>388674</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5">
         <v>112</v>
@@ -3627,12 +3609,12 @@
         <v>41</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5">
         <v>4930</v>
@@ -3644,12 +3626,12 @@
         <v>2612</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="5">
         <v>3208</v>
@@ -3661,12 +3643,12 @@
         <v>1765</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="44">
         <v>3484</v>
@@ -3678,12 +3660,12 @@
         <v>1314</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="5">
         <v>7391</v>
@@ -3695,12 +3677,12 @@
         <v>4087</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="5">
         <v>10865</v>
@@ -3712,12 +3694,12 @@
         <v>5889</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="5">
         <v>39229</v>
@@ -3729,12 +3711,12 @@
         <v>24079</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A11" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="21">
         <v>923</v>
@@ -3746,12 +3728,12 @@
         <v>389</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="5">
         <v>9377</v>
@@ -3763,12 +3745,12 @@
         <v>5221</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="47">
         <v>9883</v>
@@ -3780,12 +3762,12 @@
         <v>5219</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="5">
         <v>1082463</v>
@@ -3797,12 +3779,12 @@
         <v>614970</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="5">
         <v>65</v>
@@ -3814,12 +3796,12 @@
         <v>32</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="5">
         <v>371</v>
@@ -3831,12 +3813,12 @@
         <v>176</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="5">
         <v>427</v>
@@ -3848,12 +3830,12 @@
         <v>223</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5">
         <v>51858</v>
@@ -3865,12 +3847,12 @@
         <v>29644</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A19" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="21">
         <v>6632</v>
@@ -3882,12 +3864,12 @@
         <v>3861</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="5">
         <v>1949</v>
@@ -3899,12 +3881,12 @@
         <v>1096</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" s="21">
         <v>1129</v>
@@ -3916,12 +3898,12 @@
         <v>514</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5">
         <v>232</v>
@@ -3933,12 +3915,12 @@
         <v>133</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5">
         <v>22</v>
@@ -3950,12 +3932,12 @@
         <v>12</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5">
         <v>2152</v>
@@ -3967,12 +3949,12 @@
         <v>1157</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5">
         <v>3450</v>
@@ -3984,12 +3966,12 @@
         <v>1894</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="21">
         <v>2589</v>
@@ -4001,12 +3983,12 @@
         <v>1444</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B27" s="21">
         <v>673</v>
@@ -4018,12 +4000,12 @@
         <v>224</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5">
         <v>155</v>
@@ -4035,12 +4017,12 @@
         <v>70</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="5">
         <v>13069</v>
@@ -4052,12 +4034,12 @@
         <v>7728</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" s="5">
         <v>96</v>
@@ -4069,12 +4051,12 @@
         <v>54</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" s="5">
         <v>883</v>
@@ -4086,12 +4068,12 @@
         <v>509</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B32" s="5">
         <v>20533</v>
@@ -4103,12 +4085,12 @@
         <v>10470</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="14" customFormat="1" ht="33" customHeight="1">
       <c r="A33" s="46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B33" s="21">
         <v>5817</v>
@@ -4120,12 +4102,12 @@
         <v>3244</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5">
         <v>374</v>
@@ -4137,12 +4119,12 @@
         <v>128</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="A35" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B35" s="44">
         <v>8158</v>
@@ -4154,12 +4136,12 @@
         <v>4570</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" s="5">
         <v>1730</v>
@@ -4171,12 +4153,12 @@
         <v>992</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="5">
         <v>1437</v>
@@ -4188,12 +4170,12 @@
         <v>498</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="5">
         <v>1098</v>
@@ -4205,12 +4187,12 @@
         <v>373</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39" s="5">
         <v>91894</v>
@@ -4222,12 +4204,12 @@
         <v>53833</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" s="5">
         <v>2617</v>
@@ -4239,12 +4221,12 @@
         <v>1059</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B41" s="5">
         <v>210</v>
@@ -4256,12 +4238,12 @@
         <v>48</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B42" s="5">
         <v>1921</v>
@@ -4273,12 +4255,12 @@
         <v>526</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B43" s="5">
         <v>345</v>
@@ -4290,12 +4272,12 @@
         <v>107</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B44" s="5">
         <v>3604095</v>
@@ -4307,12 +4289,12 @@
         <v>1765197</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B45" s="5">
         <v>4662455</v>
@@ -4324,7 +4306,7 @@
         <v>2352361</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
